--- a/data/trans_bre/CAGE_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/CAGE_R-Habitat-trans_bre.xlsx
@@ -660,23 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.689831266082148</v>
+        <v>-1.617435621848234</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.002010002043525</v>
+        <v>-2.008900486860241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.827916428475931</v>
+        <v>-1.779411298112089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.331053829557998</v>
+        <v>-1.326236435561628</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
-      <c r="J5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -686,23 +688,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1534530349285691</v>
+        <v>-0.1535310379051984</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3718273865668651</v>
+        <v>-0.3688622775360006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0385890949599323</v>
+        <v>0.08044591694067936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.781670298358571</v>
+        <v>1.602440746219576</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.1176244917137149</v>
+        <v>0.2291722849204799</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>7.948639026151648</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -725,7 +729,7 @@
         <v>-1.925276492868402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6867703792921078</v>
+        <v>0.6867703792921083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.8544205575677591</v>
@@ -737,7 +741,7 @@
         <v>-0.870853840118884</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3651078223159924</v>
+        <v>0.3651078223159926</v>
       </c>
     </row>
     <row r="8">
@@ -748,16 +752,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.367014796192951</v>
+        <v>-1.358547956659265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.469149705418118</v>
+        <v>-2.448344506508566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.291142678318609</v>
+        <v>-3.0975812622489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.258248996568645</v>
+        <v>-1.308003351846918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
@@ -766,10 +770,10 @@
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9703275280619931</v>
+        <v>-0.9687807332079095</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5811371273398945</v>
+        <v>-0.6223012684222192</v>
       </c>
     </row>
     <row r="9">
@@ -780,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.1086331303671691</v>
+        <v>-0.1014210381451505</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.5708301935450202</v>
+        <v>-0.5212054023815126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.9986272061695923</v>
+        <v>-1.042501626721907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.591678151413522</v>
+        <v>3.491175361154408</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.054697546031716</v>
+        <v>0.6129596713057918</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4475940425323171</v>
+        <v>-0.07980042676682096</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.5345983673971459</v>
+        <v>-0.617541446791794</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.025317163503049</v>
+        <v>3.170854840803398</v>
       </c>
     </row>
     <row r="10">
@@ -848,16 +852,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.925704183670294</v>
+        <v>-1.896615212348584</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.680963997794536</v>
+        <v>-3.822982796400139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.927188724324695</v>
+        <v>-2.092117843593185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.054458011336922</v>
+        <v>-3.283134197008647</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -865,7 +869,7 @@
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.8631857557324122</v>
+        <v>-0.8777839495378373</v>
       </c>
     </row>
     <row r="12">
@@ -876,24 +880,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.4127014153053764</v>
+        <v>-0.4172060934420951</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.223740464830589</v>
+        <v>-1.298217417407196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.4035749129748887</v>
+        <v>-0.4291250165783518</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.315276116754504</v>
+        <v>3.42116206888094</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>-0.6410268876520093</v>
+        <v>-0.7059164462665455</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>3.036528047736999</v>
+        <v>3.028500367577253</v>
       </c>
     </row>
     <row r="13">
@@ -940,28 +944,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8060102533994109</v>
+        <v>-0.7879528312306525</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.949287145955185</v>
+        <v>-3.778413681331077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.213099886066924</v>
+        <v>-1.06768488078578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.855076272633167</v>
+        <v>-4.651526130292759</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6985838864618437</v>
+        <v>-0.7137481727643578</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6552949101374292</v>
+        <v>-0.613587662644196</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8651425264279745</v>
+        <v>-0.8688305388113889</v>
       </c>
     </row>
     <row r="15">
@@ -972,28 +976,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.818607957117869</v>
+        <v>0.9553795652903908</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.445149821753433</v>
+        <v>-1.464778940823031</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7808702815663825</v>
+        <v>0.8004891683870305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2551198553079242</v>
+        <v>0.3443441101628146</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.35341392405213</v>
+        <v>2.757111554161184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.6932849793607248</v>
+        <v>-0.7247877547549384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.062218629989798</v>
+        <v>1.22080343521969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3657484178360988</v>
+        <v>0.4052125704627046</v>
       </c>
     </row>
     <row r="16">
@@ -1017,7 +1021,7 @@
         <v>-0.9606471142455177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.6056602445509003</v>
+        <v>-0.605660244550901</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6487142589218476</v>
@@ -1029,7 +1033,7 @@
         <v>-0.6684631136089009</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2459156759604983</v>
+        <v>-0.2459156759604986</v>
       </c>
     </row>
     <row r="17">
@@ -1040,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.868029789446578</v>
+        <v>-0.9016707560207763</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.370137757033195</v>
+        <v>-2.333019555150392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.502119756869986</v>
+        <v>-1.458576158575722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.698139769948917</v>
+        <v>-1.729145636161205</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.869402852125411</v>
+        <v>-0.8628740400283609</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9738354940756654</v>
+        <v>-0.9725918711781825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8123385635672495</v>
+        <v>-0.8259001500302555</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5998797872158906</v>
+        <v>-0.5882751792603695</v>
       </c>
     </row>
     <row r="18">
@@ -1072,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1333907173734821</v>
+        <v>-0.1656807253704455</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.263160440627872</v>
+        <v>-1.302685819132369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5243644901025751</v>
+        <v>-0.4708806536926992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8269796062051014</v>
+        <v>0.683379947444727</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2093267806426388</v>
+        <v>-0.2726579880916451</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.8185837221456483</v>
+        <v>-0.8199745003292306</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4091430594195512</v>
+        <v>-0.4096884679831121</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4366484001278848</v>
+        <v>0.3614524893760758</v>
       </c>
     </row>
     <row r="19">
